--- a/zazic-scale-up/forms/contact/person-edit.xlsx
+++ b/zazic-scale-up/forms/contact/person-edit.xlsx
@@ -1,14 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\medic\ssh-git\config-itech-21\zazic-scale-up\forms\contact\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865B067B-90AB-44B9-B66A-44F0E3230CCD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="survey" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="choices" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="settings" sheetId="3" r:id="rId6"/>
+    <sheet name="survey" sheetId="1" r:id="rId1"/>
+    <sheet name="choices" sheetId="2" r:id="rId2"/>
+    <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mjr6ItUWDb/UQJ1DfGI52oM1AUJXA=="/>
@@ -18,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="90">
   <si>
     <t>type</t>
   </si>
@@ -164,15 +173,6 @@
     <t>Zengeza Clinic</t>
   </si>
   <si>
-    <t>select_one facilities</t>
-  </si>
-  <si>
-    <t>enrollment_facility</t>
-  </si>
-  <si>
-    <t>VMMC Enrollment Facility</t>
-  </si>
-  <si>
     <t>enrollment_location</t>
   </si>
   <si>
@@ -294,77 +294,79 @@
   </si>
   <si>
     <t>Mahusekwa Hospital</t>
+  </si>
+  <si>
+    <t>NO_LABEL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY\-MM\-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Cambria"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Proxima Nova"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <sz val="10.0"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Proxima Nova"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="Cambria"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="12"/>
       <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -372,7 +374,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -381,8 +383,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
-    <border/>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FFD0CECE"/>
@@ -396,105 +404,55 @@
       <bottom style="thin">
         <color rgb="FFD0CECE"/>
       </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -684,62 +642,62 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.11"/>
-    <col customWidth="1" min="2" max="2" width="18.44"/>
-    <col customWidth="1" min="3" max="3" width="57.0"/>
-    <col customWidth="1" min="4" max="4" width="11.33"/>
-    <col customWidth="1" min="5" max="5" width="4.0"/>
-    <col customWidth="1" min="6" max="8" width="13.44"/>
-    <col customWidth="1" min="9" max="9" width="64.0"/>
-    <col customWidth="1" min="10" max="18" width="13.44"/>
-    <col customWidth="1" min="19" max="26" width="10.0"/>
+    <col min="1" max="1" width="28.125" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="57" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="4" customWidth="1"/>
+    <col min="6" max="8" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="64" customWidth="1"/>
+    <col min="10" max="18" width="13.5" customWidth="1"/>
+    <col min="19" max="26" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="15" t="s">
         <v>13</v>
       </c>
       <c r="K1" s="1"/>
@@ -759,23 +717,25 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -793,27 +753,27 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -831,29 +791,29 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A4" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
+      <c r="F4" s="15"/>
+      <c r="G4" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -871,462 +831,454 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12" t="s">
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="C6" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12" t="s">
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12" t="s">
+      <c r="B7" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="12" t="s">
+    <row r="8" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A8" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12" t="s">
+      <c r="B8" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12" t="s">
+    <row r="9" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A9" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="12" t="s">
+    <row r="10" spans="1:26" ht="15.75">
+      <c r="A10" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12" t="s">
+      <c r="C10" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A11" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="12" t="s">
+      <c r="B11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
+      <c r="J11" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12" t="s">
+    <row r="12" spans="1:26" ht="15.75">
+      <c r="A12" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
+      <c r="B12" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:26" ht="15.75">
+      <c r="A13" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12" t="s">
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14">
-      <c r="A14" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="12" t="s">
+    <row r="14" spans="1:26" ht="15.75">
+      <c r="A14" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15">
-      <c r="A15" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
+    <row r="15" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
       <c r="W15" s="12"/>
       <c r="X15" s="12"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="15"/>
+    <row r="16" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
+    <row r="17" spans="1:26" ht="15.75">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="16"/>
+      <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1349,17 +1301,17 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
+    <row r="18" spans="1:26" ht="15.75">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -1377,17 +1329,17 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
+    <row r="19" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -1405,8 +1357,8 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="16"/>
+    <row r="20" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1433,7 +1385,7 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1461,17 +1413,17 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="18"/>
+    <row r="22" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="16"/>
+      <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -1489,17 +1441,17 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="1"/>
+    <row r="23" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="13"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="16"/>
+      <c r="F23" s="13"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -1517,17 +1469,17 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="16"/>
+    <row r="24" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A24" s="13"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="16"/>
+      <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -1545,41 +1497,14 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="16"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="12.75" customHeight="1"/>
-    <row r="29" ht="12.75" customHeight="1"/>
-    <row r="30" ht="12.75" customHeight="1"/>
-    <row r="31" ht="12.75" customHeight="1"/>
-    <row r="32" ht="12.75" customHeight="1"/>
+    <row r="25" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:26" ht="12.75" customHeight="1"/>
+    <row r="28" spans="1:26" ht="12.75" customHeight="1"/>
+    <row r="29" spans="1:26" ht="12.75" customHeight="1"/>
+    <row r="30" spans="1:26" ht="12.75" customHeight="1"/>
+    <row r="31" spans="1:26" ht="12.75" customHeight="1"/>
+    <row r="32" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="33" ht="12.75" customHeight="1"/>
     <row r="34" ht="12.75" customHeight="1"/>
     <row r="35" ht="12.75" customHeight="1"/>
@@ -1772,7 +1697,7 @@
     <row r="222" ht="12.75" customHeight="1"/>
     <row r="223" ht="12.75" customHeight="1"/>
     <row r="224" ht="12.75" customHeight="1"/>
-    <row r="225" ht="12.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
     <row r="228" ht="15.75" customHeight="1"/>
@@ -2547,36 +2472,31 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.984027777777778" footer="0.0" header="0.0" left="0.747916666666667" right="0.747916666666667" top="0.984027777777778"/>
-  <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0" footer="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Z985"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.67"/>
-    <col customWidth="1" min="2" max="2" width="13.44"/>
-    <col customWidth="1" min="3" max="3" width="17.67"/>
-    <col customWidth="1" min="4" max="6" width="13.44"/>
-    <col customWidth="1" min="7" max="26" width="8.56"/>
+    <col min="1" max="1" width="19.625" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="26" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" ht="15.75">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -2587,7 +2507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" ht="15.75">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -2598,7 +2518,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" ht="15.75">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -2609,348 +2529,348 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:26" ht="15.75">
+      <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
     </row>
-    <row r="6">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:26" ht="15.75">
+      <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="9"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="7" t="s">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="9"/>
+      <c r="B11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="7" t="s">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="9"/>
+      <c r="B12" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="7" t="s">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="9"/>
+      <c r="B13" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="7" t="s">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
+      <c r="B14" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -3921,84 +3841,80 @@
     <row r="984" ht="15.75" customHeight="1"/>
     <row r="985" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.984027777777778" footer="0.0" header="0.0" left="0.747916666666667" right="0.747916666666667" top="0.984027777777778"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="38.67"/>
-    <col customWidth="1" min="2" max="2" width="53.33"/>
-    <col customWidth="1" min="3" max="3" width="40.0"/>
-    <col customWidth="1" min="4" max="4" width="25.0"/>
-    <col customWidth="1" min="5" max="15" width="13.44"/>
-    <col customWidth="1" min="16" max="26" width="8.56"/>
+    <col min="1" max="1" width="38.625" customWidth="1"/>
+    <col min="2" max="2" width="53.375" customWidth="1"/>
+    <col min="3" max="3" width="40" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="15" width="13.5" customWidth="1"/>
+    <col min="16" max="26" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.0" customHeight="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:15" ht="18" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="11">
-        <v>43936.0</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="10">
+        <v>43936</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -4981,9 +4897,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.984027777777778" footer="0.0" header="0.0" left="0.747916666666667" right="0.747916666666667" top="0.984027777777778"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/zazic-scale-up/forms/contact/person-edit.xlsx
+++ b/zazic-scale-up/forms/contact/person-edit.xlsx
@@ -1,76 +1,79 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\medic\ssh-git\config-itech-21\zazic-scale-up\forms\contact\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865B067B-90AB-44B9-B66A-44F0E3230CCD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="survey" sheetId="1" r:id="rId1"/>
-    <sheet name="choices" sheetId="2" r:id="rId2"/>
-    <sheet name="settings" sheetId="3" r:id="rId3"/>
+    <sheet state="visible" name="survey" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="choices" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="settings" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mjr6ItUWDb/UQJ1DfGI52oM1AUJXA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mhxE50lmiDDikQ5XQnYgO6cH2UVdw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="93">
   <si>
     <t>type</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>relevant</t>
+  </si>
+  <si>
+    <t>appearance</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>hint</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>constraint</t>
+  </si>
+  <si>
+    <t>constraint_message</t>
+  </si>
+  <si>
     <t>list_name</t>
   </si>
   <si>
     <t>form_title</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>relevant</t>
-  </si>
-  <si>
-    <t>appearance</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>hint</t>
+    <t>begin group</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>NO_LABEL</t>
+  </si>
+  <si>
+    <t>field-list</t>
   </si>
   <si>
     <t>language_preference</t>
   </si>
   <si>
-    <t>default</t>
-  </si>
-  <si>
     <t>english</t>
   </si>
   <si>
-    <t>constraint</t>
-  </si>
-  <si>
-    <t>constraint_message</t>
-  </si>
-  <si>
     <t>English</t>
   </si>
   <si>
@@ -83,64 +86,100 @@
     <t>facilities</t>
   </si>
   <si>
-    <t>begin group</t>
-  </si>
-  <si>
-    <t>person</t>
-  </si>
-  <si>
-    <t>field-list</t>
+    <t>string</t>
+  </si>
+  <si>
+    <t>seke_north</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>Chitungwiza-Seke North clinic</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>hidden</t>
+  </si>
+  <si>
+    <t>PARENT</t>
+  </si>
+  <si>
+    <t>Person Type</t>
   </si>
   <si>
     <t>form_id</t>
   </si>
   <si>
-    <t>seke_north</t>
+    <t>mandatory</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>Chitungwiza-Seke North clinic</t>
-  </si>
-  <si>
     <t>style</t>
   </si>
   <si>
     <t>path</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>parent</t>
-  </si>
-  <si>
-    <t>Parent</t>
-  </si>
-  <si>
-    <t>hidden</t>
+    <t>VMMC Client Name</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>regex(., "^[a-zA-Z\'\s]+$")</t>
+  </si>
+  <si>
+    <t>Please type in name characters e.g letters and space.</t>
   </si>
   <si>
     <t>seke_south</t>
   </si>
   <si>
-    <t>PARENT</t>
+    <t>Chitungwiza-Seke South clinic</t>
   </si>
   <si>
     <t>Edit Person</t>
   </si>
   <si>
-    <t>Chitungwiza-Seke South clinic</t>
+    <t>city_med</t>
+  </si>
+  <si>
+    <t>City Med hospital</t>
+  </si>
+  <si>
+    <t>select_one facilities</t>
   </si>
   <si>
     <t>contact:person:edit</t>
   </si>
   <si>
-    <t>Person Type</t>
-  </si>
-  <si>
-    <t>mandatory</t>
+    <t>enrollment_facility</t>
+  </si>
+  <si>
+    <t>VMMC Enrollment Facility</t>
+  </si>
+  <si>
+    <t>zengeza</t>
+  </si>
+  <si>
+    <t>Zengeza Clinic</t>
+  </si>
+  <si>
+    <t>chitungwiza_central</t>
+  </si>
+  <si>
+    <t>enrollment_location</t>
+  </si>
+  <si>
+    <t>Chitungwiza Central Hospital</t>
+  </si>
+  <si>
+    <t>Specify Enrollment Location</t>
   </si>
   <si>
     <t>pages</t>
@@ -149,40 +188,10 @@
     <t>data</t>
   </si>
   <si>
-    <t>city_med</t>
-  </si>
-  <si>
-    <t>City Med hospital</t>
-  </si>
-  <si>
-    <t>VMMC Client Name</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>regex(., "^[a-zA-Z\'\s]+$")</t>
-  </si>
-  <si>
-    <t>Please type in name characters e.g letters and space.</t>
-  </si>
-  <si>
-    <t>zengeza</t>
-  </si>
-  <si>
-    <t>Zengeza Clinic</t>
-  </si>
-  <si>
-    <t>enrollment_location</t>
-  </si>
-  <si>
-    <t>Specify Enrollment Location</t>
-  </si>
-  <si>
-    <t>chitungwiza_central</t>
-  </si>
-  <si>
-    <t>Chitungwiza Central Hospital</t>
+    <t>vmmc_no</t>
+  </si>
+  <si>
+    <t>VMMC Client Number</t>
   </si>
   <si>
     <t>chegutu_norton</t>
@@ -191,12 +200,6 @@
     <t>Chegutu- Norton hospital</t>
   </si>
   <si>
-    <t>vmmc_no</t>
-  </si>
-  <si>
-    <t>VMMC Client Number</t>
-  </si>
-  <si>
     <t>regex(., '^[0-9]{5,9}$')</t>
   </si>
   <si>
@@ -209,12 +212,12 @@
     <t>age_years</t>
   </si>
   <si>
+    <t>VMMC Client Age in Years</t>
+  </si>
+  <si>
     <t>chegutu_district</t>
   </si>
   <si>
-    <t>VMMC Client Age in Years</t>
-  </si>
-  <si>
     <t>Chegutu District Hospital</t>
   </si>
   <si>
@@ -233,22 +236,28 @@
     <t>Enrollment Date</t>
   </si>
   <si>
+    <t>monera</t>
+  </si>
+  <si>
     <t>decimal-date-time(.) = floor(decimal-date-time(today()))</t>
   </si>
   <si>
     <t>Only today's date is allowed</t>
   </si>
   <si>
+    <t>Monera clinic(Norton Outreach)</t>
+  </si>
+  <si>
     <t>phone</t>
   </si>
   <si>
     <t>Client Mobile phone number</t>
   </si>
   <si>
-    <t>monera</t>
-  </si>
-  <si>
-    <t>Monera clinic(Norton Outreach)</t>
+    <t>marondera</t>
+  </si>
+  <si>
+    <t>Marondera District Hospital</t>
   </si>
   <si>
     <t>regex(., '^\+263[0-9]{9}$')</t>
@@ -263,15 +272,15 @@
     <t>Alternative/Next of Kin's Mobile Number</t>
   </si>
   <si>
+    <t>mahusekwa</t>
+  </si>
+  <si>
+    <t>Mahusekwa Hospital</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
-    <t>marondera</t>
-  </si>
-  <si>
-    <t>Marondera District Hospital</t>
-  </si>
-  <si>
     <t>select_one language_preference</t>
   </si>
   <si>
@@ -287,86 +296,66 @@
     <t>Name of enrollment nurse</t>
   </si>
   <si>
-    <t>mahusekwa</t>
-  </si>
-  <si>
     <t>end group</t>
-  </si>
-  <si>
-    <t>Mahusekwa Hospital</t>
-  </si>
-  <si>
-    <t>NO_LABEL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="10">
     <font>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Cambria"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FFFFFFFF"/>
       <name val="Proxima Nova"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Cambria"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="12.0"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12.0"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="12.0"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -374,7 +363,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -384,13 +373,7 @@
     </fill>
   </fills>
   <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FFD0CECE"/>
@@ -404,55 +387,60 @@
       <bottom style="thin">
         <color rgb="FFD0CECE"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+  <cellXfs count="14">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -642,583 +630,591 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z999"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="28.125" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="57" customWidth="1"/>
-    <col min="4" max="4" width="11.375" customWidth="1"/>
-    <col min="5" max="5" width="4" customWidth="1"/>
-    <col min="6" max="8" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="64" customWidth="1"/>
-    <col min="10" max="18" width="13.5" customWidth="1"/>
-    <col min="19" max="26" width="10" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="28.11"/>
+    <col customWidth="1" min="2" max="2" width="18.44"/>
+    <col customWidth="1" min="3" max="3" width="57.0"/>
+    <col customWidth="1" min="4" max="4" width="11.33"/>
+    <col customWidth="1" min="5" max="5" width="4.0"/>
+    <col customWidth="1" min="6" max="8" width="13.44"/>
+    <col customWidth="1" min="9" max="9" width="64.0"/>
+    <col customWidth="1" min="10" max="18" width="13.44"/>
+    <col customWidth="1" min="19" max="26" width="10.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A1" s="15" t="s">
+    <row r="1" ht="12.75" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+    </row>
+    <row r="2" ht="12.75" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
     </row>
-    <row r="2" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A2" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
+    <row r="3" ht="12.75" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
     </row>
-    <row r="3" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A3" s="15" t="s">
+    <row r="4" ht="12.75" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
     </row>
-    <row r="4" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A4" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="15" t="s">
+    <row r="5" ht="12.75" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15" t="s">
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A5" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15" t="s">
+    <row r="6" ht="12.75" customHeight="1">
+      <c r="A6" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-    </row>
-    <row r="6" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A6" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
+      <c r="B6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
       <c r="W6" s="11"/>
       <c r="X6" s="11"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A7" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15" t="s">
+    <row r="7" ht="12.75" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+    </row>
+    <row r="8" ht="12.75" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="C8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
     </row>
-    <row r="8" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A8" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15" t="s">
+    <row r="9" ht="12.75" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="C9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
     </row>
-    <row r="9" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A9" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="J9" s="15" t="s">
+    <row r="10" ht="12.75" customHeight="1">
+      <c r="A10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75">
-      <c r="A10" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
     </row>
-    <row r="11" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A11" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
+    <row r="12" ht="12.75" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75">
-      <c r="A12" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75">
-      <c r="A13" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75">
-      <c r="A14" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-    </row>
-    <row r="15" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A15" s="1"/>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1228,283 +1224,310 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
     </row>
-    <row r="16" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
+    <row r="16" ht="12.75" customHeight="1">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
+    <row r="17" ht="12.75" customHeight="1">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
+    <row r="18">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
     </row>
-    <row r="19" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
+    <row r="19">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
     </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
+    <row r="20" ht="12.75" customHeight="1">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
     </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
     </row>
-    <row r="24" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A24" s="13"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
     </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="27" spans="1:26" ht="12.75" customHeight="1"/>
-    <row r="28" spans="1:26" ht="12.75" customHeight="1"/>
-    <row r="29" spans="1:26" ht="12.75" customHeight="1"/>
-    <row r="30" spans="1:26" ht="12.75" customHeight="1"/>
-    <row r="31" spans="1:26" ht="12.75" customHeight="1"/>
-    <row r="32" spans="1:26" ht="12.75" customHeight="1"/>
+    <row r="25" ht="12.75" customHeight="1">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="12.75" customHeight="1"/>
+    <row r="29" ht="12.75" customHeight="1"/>
+    <row r="30" ht="12.75" customHeight="1"/>
+    <row r="31" ht="12.75" customHeight="1"/>
+    <row r="32" ht="12.75" customHeight="1"/>
     <row r="33" ht="12.75" customHeight="1"/>
     <row r="34" ht="12.75" customHeight="1"/>
     <row r="35" ht="12.75" customHeight="1"/>
@@ -1697,7 +1720,7 @@
     <row r="222" ht="12.75" customHeight="1"/>
     <row r="223" ht="12.75" customHeight="1"/>
     <row r="224" ht="12.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="225" ht="12.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
     <row r="228" ht="15.75" customHeight="1"/>
@@ -2472,405 +2495,410 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <printOptions/>
+  <pageMargins bottom="0.984027777777778" footer="0.0" header="0.0" left="0.747916666666667" right="0.747916666666667" top="0.984027777777778"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z985"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.625" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="17.625" customWidth="1"/>
-    <col min="4" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="26" width="8.5" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="19.67"/>
+    <col customWidth="1" min="2" max="2" width="13.44"/>
+    <col customWidth="1" min="3" max="3" width="17.67"/>
+    <col customWidth="1" min="4" max="6" width="13.44"/>
+    <col customWidth="1" min="7" max="26" width="8.44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75">
-      <c r="A1" s="2" t="s">
+    <row r="1">
+      <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="15.75">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
+    <row r="2">
+      <c r="A2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="15.75">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    <row r="3">
+      <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="B3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="1:26" ht="15.75">
+    <row r="5">
       <c r="A5" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75">
-      <c r="A6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
+    <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="6" t="s">
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
+      <c r="C9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="6" t="s">
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
+      <c r="C12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="6" t="s">
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="8"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="15" ht="15.75" customHeight="1"/>
+    <row r="16" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -3841,80 +3869,84 @@
     <row r="984" ht="15.75" customHeight="1"/>
     <row r="985" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.984027777777778" footer="0.0" header="0.0" left="0.747916666666667" right="0.747916666666667" top="0.984027777777778"/>
   <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.625" customWidth="1"/>
-    <col min="2" max="2" width="53.375" customWidth="1"/>
-    <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="15" width="13.5" customWidth="1"/>
-    <col min="16" max="26" width="8.5" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="38.67"/>
+    <col customWidth="1" min="2" max="2" width="53.33"/>
+    <col customWidth="1" min="3" max="3" width="40.0"/>
+    <col customWidth="1" min="4" max="4" width="25.0"/>
+    <col customWidth="1" min="5" max="15" width="13.44"/>
+    <col customWidth="1" min="16" max="26" width="8.44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
+    <row r="1" ht="18.0" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="10">
-        <v>43936</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="12">
+        <v>43936.0</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -4897,7 +4929,9 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.984027777777778" footer="0.0" header="0.0" left="0.747916666666667" right="0.747916666666667" top="0.984027777777778"/>
   <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/zazic-scale-up/forms/contact/person-edit.xlsx
+++ b/zazic-scale-up/forms/contact/person-edit.xlsx
@@ -1,14 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmanuel-amodu/Desktop/medic-mobile/config-itech/zazic-scale-up/forms/contact/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FA1924-71F4-8E43-8EB1-4DA560DF57F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="survey" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="choices" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="settings" sheetId="3" r:id="rId6"/>
+    <sheet name="survey" sheetId="1" r:id="rId1"/>
+    <sheet name="choices" sheetId="2" r:id="rId2"/>
+    <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mhxE50lmiDDikQ5XQnYgO6cH2UVdw=="/>
@@ -18,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="107">
   <si>
     <t>type</t>
   </si>
@@ -95,9 +104,6 @@
     <t>parent</t>
   </si>
   <si>
-    <t>Chitungwiza-Seke North clinic</t>
-  </si>
-  <si>
     <t>Parent</t>
   </si>
   <si>
@@ -140,18 +146,12 @@
     <t>seke_south</t>
   </si>
   <si>
-    <t>Chitungwiza-Seke South clinic</t>
-  </si>
-  <si>
     <t>Edit Person</t>
   </si>
   <si>
     <t>city_med</t>
   </si>
   <si>
-    <t>City Med hospital</t>
-  </si>
-  <si>
     <t>select_one facilities</t>
   </si>
   <si>
@@ -167,18 +167,12 @@
     <t>zengeza</t>
   </si>
   <si>
-    <t>Zengeza Clinic</t>
-  </si>
-  <si>
     <t>chitungwiza_central</t>
   </si>
   <si>
     <t>enrollment_location</t>
   </si>
   <si>
-    <t>Chitungwiza Central Hospital</t>
-  </si>
-  <si>
     <t>Specify Enrollment Location</t>
   </si>
   <si>
@@ -197,9 +191,6 @@
     <t>chegutu_norton</t>
   </si>
   <si>
-    <t>Chegutu- Norton hospital</t>
-  </si>
-  <si>
     <t>regex(., '^[0-9]{5,9}$')</t>
   </si>
   <si>
@@ -218,9 +209,6 @@
     <t>chegutu_district</t>
   </si>
   <si>
-    <t>Chegutu District Hospital</t>
-  </si>
-  <si>
     <t>(.) &gt;= 18 and (.) &lt;= 75</t>
   </si>
   <si>
@@ -245,9 +233,6 @@
     <t>Only today's date is allowed</t>
   </si>
   <si>
-    <t>Monera clinic(Norton Outreach)</t>
-  </si>
-  <si>
     <t>phone</t>
   </si>
   <si>
@@ -257,9 +242,6 @@
     <t>marondera</t>
   </si>
   <si>
-    <t>Marondera District Hospital</t>
-  </si>
-  <si>
     <t>regex(., '^\+263[0-9]{9}$')</t>
   </si>
   <si>
@@ -275,9 +257,6 @@
     <t>mahusekwa</t>
   </si>
   <si>
-    <t>Mahusekwa Hospital</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
@@ -297,65 +276,145 @@
   </si>
   <si>
     <t>end group</t>
+  </si>
+  <si>
+    <t>1. Chitungwiza-Seke North clinic</t>
+  </si>
+  <si>
+    <t>2. Chitungwiza-Seke South clinic</t>
+  </si>
+  <si>
+    <t>3. City Med hospital</t>
+  </si>
+  <si>
+    <t>4. Zengeza Clinic</t>
+  </si>
+  <si>
+    <t>5. Chitungwiza Central Hospital</t>
+  </si>
+  <si>
+    <t>6. Chegutu- Norton hospital</t>
+  </si>
+  <si>
+    <t>7. Chegutu District Hospital</t>
+  </si>
+  <si>
+    <t>8. Monera clinic(Norton Outreach)</t>
+  </si>
+  <si>
+    <t>9. Marondera District Hospital</t>
+  </si>
+  <si>
+    <t>10. Mahusekwa Hospital</t>
+  </si>
+  <si>
+    <t>makumbe</t>
+  </si>
+  <si>
+    <t>11. Goromonzi-Makumbe Mission Hospital</t>
+  </si>
+  <si>
+    <t>ruwa</t>
+  </si>
+  <si>
+    <t>12. Goromonzi-Ruwa Rehab Hospital</t>
+  </si>
+  <si>
+    <t>13. Sanyati-Kadoma Hospital</t>
+  </si>
+  <si>
+    <t>kadoma</t>
+  </si>
+  <si>
+    <t>musiso</t>
+  </si>
+  <si>
+    <t>14. Zaka-Ndanga District Hospital</t>
+  </si>
+  <si>
+    <t>15. Zaka-Musiso Mission Hospital</t>
+  </si>
+  <si>
+    <t>ndanga</t>
+  </si>
+  <si>
+    <t>16. Mberengwa-Musiso Mission Hospital</t>
+  </si>
+  <si>
+    <t>17. Mberengwa-Mnene Mission Hospital</t>
+  </si>
+  <si>
+    <t>18. Mberengwa-Musume Mission Hospital</t>
+  </si>
+  <si>
+    <t>19. Mberengwa-Mberengwa District Hospital</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="10">
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Proxima Nova"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -363,7 +422,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -373,7 +432,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FFD0CECE"/>
@@ -387,60 +452,53 @@
       <bottom style="thin">
         <color rgb="FFD0CECE"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -630,34 +688,34 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.11"/>
-    <col customWidth="1" min="2" max="2" width="18.44"/>
-    <col customWidth="1" min="3" max="3" width="57.0"/>
-    <col customWidth="1" min="4" max="4" width="11.33"/>
-    <col customWidth="1" min="5" max="5" width="4.0"/>
-    <col customWidth="1" min="6" max="8" width="13.44"/>
-    <col customWidth="1" min="9" max="9" width="64.0"/>
-    <col customWidth="1" min="10" max="18" width="13.44"/>
-    <col customWidth="1" min="19" max="26" width="10.0"/>
+    <col min="1" max="1" width="28.1640625" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="57" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="4" customWidth="1"/>
+    <col min="6" max="8" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="64" customWidth="1"/>
+    <col min="10" max="18" width="13.5" customWidth="1"/>
+    <col min="19" max="26" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:26" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,7 +763,7 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:26" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -741,7 +799,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3" ht="12.75" customHeight="1">
+    <row r="3" spans="1:26" ht="12.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -749,16 +807,16 @@
         <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -779,7 +837,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:26" ht="12.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -787,15 +845,15 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>13</v>
@@ -819,7 +877,7 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
+    <row r="5" spans="1:26" ht="12.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -827,20 +885,20 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -859,20 +917,20 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" ht="12.75" customHeight="1">
+    <row r="6" spans="1:26" ht="12.75" customHeight="1">
       <c r="A6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>47</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
@@ -895,28 +953,28 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
+    <row r="7" spans="1:26" ht="12.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -935,28 +993,28 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" ht="12.75" customHeight="1">
+    <row r="8" spans="1:26" ht="12.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -975,28 +1033,28 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" ht="12.75" customHeight="1">
+    <row r="9" spans="1:26" ht="12.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -1015,28 +1073,28 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
+    <row r="10" spans="1:26" ht="12.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -1055,28 +1113,28 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:26" ht="16">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -1095,28 +1153,28 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" ht="12.75" customHeight="1">
+    <row r="12" spans="1:26" ht="12.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -1135,20 +1193,20 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:26" ht="16">
       <c r="A13" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1171,28 +1229,28 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:26" ht="16">
       <c r="A14" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -1211,9 +1269,9 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:26" ht="16">
       <c r="A15" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1241,7 +1299,7 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16" ht="12.75" customHeight="1">
+    <row r="16" spans="1:26" ht="12.75" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1269,7 +1327,7 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17" ht="12.75" customHeight="1">
+    <row r="17" spans="1:26" ht="12.75" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1297,7 +1355,7 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:26" ht="16">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1325,7 +1383,7 @@
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:26" ht="16">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1353,7 +1411,7 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
     </row>
-    <row r="20" ht="12.75" customHeight="1">
+    <row r="20" spans="1:26" ht="12.75" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1381,7 +1439,7 @@
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1409,7 +1467,7 @@
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1437,7 +1495,7 @@
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1465,7 +1523,7 @@
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="13"/>
@@ -1493,7 +1551,7 @@
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
     </row>
-    <row r="25" ht="12.75" customHeight="1">
+    <row r="25" spans="1:26" ht="12.75" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1521,13 +1579,13 @@
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="12.75" customHeight="1"/>
-    <row r="29" ht="12.75" customHeight="1"/>
-    <row r="30" ht="12.75" customHeight="1"/>
-    <row r="31" ht="12.75" customHeight="1"/>
-    <row r="32" ht="12.75" customHeight="1"/>
+    <row r="26" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:26" ht="12.75" customHeight="1"/>
+    <row r="29" spans="1:26" ht="12.75" customHeight="1"/>
+    <row r="30" spans="1:26" ht="12.75" customHeight="1"/>
+    <row r="31" spans="1:26" ht="12.75" customHeight="1"/>
+    <row r="32" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="33" ht="12.75" customHeight="1"/>
     <row r="34" ht="12.75" customHeight="1"/>
     <row r="35" ht="12.75" customHeight="1"/>
@@ -2497,34 +2555,30 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.984027777777778" footer="0.0" header="0.0" left="0.747916666666667" right="0.747916666666667" top="0.984027777777778"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Z985"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.67"/>
-    <col customWidth="1" min="2" max="2" width="13.44"/>
-    <col customWidth="1" min="3" max="3" width="17.67"/>
-    <col customWidth="1" min="4" max="6" width="13.44"/>
-    <col customWidth="1" min="7" max="26" width="8.44"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="37.83203125" customWidth="1"/>
+    <col min="4" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="26" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" ht="16">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
@@ -2535,7 +2589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" ht="16">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -2546,7 +2600,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" ht="16">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -2557,7 +2611,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" ht="16">
       <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
@@ -2565,7 +2619,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -2591,15 +2645,15 @@
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" ht="16">
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -2625,15 +2679,15 @@
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -2659,15 +2713,15 @@
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -2693,15 +2747,15 @@
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -2727,15 +2781,15 @@
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -2761,15 +2815,15 @@
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -2795,15 +2849,15 @@
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -2829,15 +2883,15 @@
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -2863,15 +2917,15 @@
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -2897,24 +2951,116 @@
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
-    <row r="17" ht="15.75" customHeight="1"/>
-    <row r="18" ht="15.75" customHeight="1"/>
-    <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A24" s="4"/>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -3869,46 +4015,42 @@
     <row r="984" ht="15.75" customHeight="1"/>
     <row r="985" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.984027777777778" footer="0.0" header="0.0" left="0.747916666666667" right="0.747916666666667" top="0.984027777777778"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="38.67"/>
-    <col customWidth="1" min="2" max="2" width="53.33"/>
-    <col customWidth="1" min="3" max="3" width="40.0"/>
-    <col customWidth="1" min="4" max="4" width="25.0"/>
-    <col customWidth="1" min="5" max="15" width="13.44"/>
-    <col customWidth="1" min="16" max="26" width="8.44"/>
+    <col min="1" max="1" width="38.6640625" customWidth="1"/>
+    <col min="2" max="2" width="53.33203125" customWidth="1"/>
+    <col min="3" max="3" width="40" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="15" width="13.5" customWidth="1"/>
+    <col min="16" max="26" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.0" customHeight="1">
+    <row r="1" spans="1:15" ht="18" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -3921,21 +4063,21 @@
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C2" s="12">
-        <v>43936.0</v>
+        <v>43936</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -4929,9 +5071,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.984027777777778" footer="0.0" header="0.0" left="0.747916666666667" right="0.747916666666667" top="0.984027777777778"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/zazic-scale-up/forms/contact/person-edit.xlsx
+++ b/zazic-scale-up/forms/contact/person-edit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmanuel-amodu/Desktop/medic-mobile/config-itech/zazic-scale-up/forms/contact/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FA1924-71F4-8E43-8EB1-4DA560DF57F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104DBAA1-DA3C-F744-8EE3-B112C21D2769}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -284,30 +284,9 @@
     <t>2. Chitungwiza-Seke South clinic</t>
   </si>
   <si>
-    <t>3. City Med hospital</t>
-  </si>
-  <si>
-    <t>4. Zengeza Clinic</t>
-  </si>
-  <si>
-    <t>5. Chitungwiza Central Hospital</t>
-  </si>
-  <si>
     <t>6. Chegutu- Norton hospital</t>
   </si>
   <si>
-    <t>7. Chegutu District Hospital</t>
-  </si>
-  <si>
-    <t>8. Monera clinic(Norton Outreach)</t>
-  </si>
-  <si>
-    <t>9. Marondera District Hospital</t>
-  </si>
-  <si>
-    <t>10. Mahusekwa Hospital</t>
-  </si>
-  <si>
     <t>makumbe</t>
   </si>
   <si>
@@ -348,6 +327,27 @@
   </si>
   <si>
     <t>19. Mberengwa-Mberengwa District Hospital</t>
+  </si>
+  <si>
+    <t>3. Chitungwiza-City Med hospital</t>
+  </si>
+  <si>
+    <t>4.  Chitungwiza-Zengeza Clinic</t>
+  </si>
+  <si>
+    <t>5.  Chitungwiza-Chitungwiza Central Hospital</t>
+  </si>
+  <si>
+    <t>7. Chegutu- District Hospital</t>
+  </si>
+  <si>
+    <t>8. Chegutu-Monera clinic(Norton Outreach)</t>
+  </si>
+  <si>
+    <t>9. Marondera- Marondera District Hospital</t>
+  </si>
+  <si>
+    <t>10. Marondera- Mahusekwa Hospital</t>
   </si>
 </sst>
 </file>
@@ -2566,7 +2566,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -2687,7 +2687,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -2721,7 +2721,7 @@
         <v>45</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -2755,7 +2755,7 @@
         <v>46</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -2789,7 +2789,7 @@
         <v>53</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -2823,7 +2823,7 @@
         <v>59</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -2857,7 +2857,7 @@
         <v>65</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -2891,7 +2891,7 @@
         <v>70</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -2925,7 +2925,7 @@
         <v>75</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -2956,10 +2956,10 @@
         <v>21</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>94</v>
+        <v>86</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1">
@@ -2967,10 +2967,10 @@
         <v>21</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>96</v>
+        <v>88</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1">
@@ -2978,10 +2978,10 @@
         <v>21</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1">
@@ -2989,10 +2989,10 @@
         <v>21</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>100</v>
+        <v>95</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1">
@@ -3000,10 +3000,10 @@
         <v>21</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>101</v>
+        <v>92</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1">
@@ -3011,10 +3011,10 @@
         <v>21</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>103</v>
+        <v>92</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1">
@@ -3022,10 +3022,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>104</v>
+        <v>92</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1">
@@ -3033,10 +3033,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>105</v>
+        <v>92</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1">
@@ -3044,10 +3044,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1">

--- a/zazic-scale-up/forms/contact/person-edit.xlsx
+++ b/zazic-scale-up/forms/contact/person-edit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmanuel-amodu/Desktop/medic-mobile/config-itech/zazic-scale-up/forms/contact/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104DBAA1-DA3C-F744-8EE3-B112C21D2769}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33910C24-887B-F745-9672-B7926B656A70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2565,8 +2565,8 @@
   <dimension ref="A1:Z985"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>

--- a/zazic-scale-up/forms/contact/person-edit.xlsx
+++ b/zazic-scale-up/forms/contact/person-edit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmanuel-amodu/Desktop/medic-mobile/config-itech/zazic-scale-up/forms/contact/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33910C24-887B-F745-9672-B7926B656A70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C3C7C9-04FD-AD45-BC9E-FB3CA366980C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="111">
   <si>
     <t>type</t>
   </si>
@@ -317,18 +317,6 @@
     <t>ndanga</t>
   </si>
   <si>
-    <t>16. Mberengwa-Musiso Mission Hospital</t>
-  </si>
-  <si>
-    <t>17. Mberengwa-Mnene Mission Hospital</t>
-  </si>
-  <si>
-    <t>18. Mberengwa-Musume Mission Hospital</t>
-  </si>
-  <si>
-    <t>19. Mberengwa-Mberengwa District Hospital</t>
-  </si>
-  <si>
     <t>3. Chitungwiza-City Med hospital</t>
   </si>
   <si>
@@ -348,6 +336,30 @@
   </si>
   <si>
     <t>10. Marondera- Mahusekwa Hospital</t>
+  </si>
+  <si>
+    <t>mnene</t>
+  </si>
+  <si>
+    <t>musume</t>
+  </si>
+  <si>
+    <t>mberengwa</t>
+  </si>
+  <si>
+    <t>masase</t>
+  </si>
+  <si>
+    <t>16. Mberengwa-Mnene Mission Hospital</t>
+  </si>
+  <si>
+    <t>17. Mberengwa-Musume Mission Hospital</t>
+  </si>
+  <si>
+    <t>18. Mberengwa-Mberengwa District Hospital</t>
+  </si>
+  <si>
+    <t>19. Masase Mission Hospital</t>
   </si>
 </sst>
 </file>
@@ -2562,11 +2574,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z985"/>
+  <dimension ref="A1:Z984"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -2687,7 +2699,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -2721,7 +2733,7 @@
         <v>45</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -2755,7 +2767,7 @@
         <v>46</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -2823,7 +2835,7 @@
         <v>59</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -2857,7 +2869,7 @@
         <v>65</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -2891,7 +2903,7 @@
         <v>70</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -2925,7 +2937,7 @@
         <v>75</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -3011,10 +3023,10 @@
         <v>21</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1">
@@ -3022,10 +3034,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1">
@@ -3033,10 +3045,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1">
@@ -3044,15 +3056,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A24" s="4"/>
-    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="25" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="26" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="27" spans="1:3" ht="15.75" customHeight="1"/>
@@ -4013,7 +4023,6 @@
     <row r="982" ht="15.75" customHeight="1"/>
     <row r="983" ht="15.75" customHeight="1"/>
     <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/zazic-scale-up/forms/contact/person-edit.xlsx
+++ b/zazic-scale-up/forms/contact/person-edit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmanuel-amodu/Desktop/medic-mobile/config-itech/zazic-scale-up/forms/contact/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C3C7C9-04FD-AD45-BC9E-FB3CA366980C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FA0326-221E-BC43-8E9F-0CD016469E90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -320,12 +320,6 @@
     <t>3. Chitungwiza-City Med hospital</t>
   </si>
   <si>
-    <t>4.  Chitungwiza-Zengeza Clinic</t>
-  </si>
-  <si>
-    <t>5.  Chitungwiza-Chitungwiza Central Hospital</t>
-  </si>
-  <si>
     <t>7. Chegutu- District Hospital</t>
   </si>
   <si>
@@ -360,6 +354,12 @@
   </si>
   <si>
     <t>19. Masase Mission Hospital</t>
+  </si>
+  <si>
+    <t>4. Chitungwiza-Zengeza Clinic</t>
+  </si>
+  <si>
+    <t>5. Chitungwiza-Chitungwiza Central Hospital</t>
   </si>
 </sst>
 </file>
@@ -2578,7 +2578,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -2733,7 +2733,7 @@
         <v>45</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -2767,7 +2767,7 @@
         <v>46</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -2835,7 +2835,7 @@
         <v>59</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -2869,7 +2869,7 @@
         <v>65</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -2903,7 +2903,7 @@
         <v>70</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -2937,7 +2937,7 @@
         <v>75</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -3023,10 +3023,10 @@
         <v>21</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1">
@@ -3034,10 +3034,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1">
@@ -3045,10 +3045,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1">
@@ -3056,10 +3056,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1"/>

--- a/zazic-scale-up/forms/contact/person-edit.xlsx
+++ b/zazic-scale-up/forms/contact/person-edit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmanuel-amodu/Desktop/medic-mobile/config-itech/zazic-scale-up/forms/contact/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FA0326-221E-BC43-8E9F-0CD016469E90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDC7E96-BDFB-C64D-A040-388F460E76C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -709,9 +709,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -2576,9 +2576,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z984"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>

--- a/zazic-scale-up/forms/contact/person-edit.xlsx
+++ b/zazic-scale-up/forms/contact/person-edit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmanuel-amodu/Desktop/medic-mobile/config-itech/zazic-scale-up/forms/contact/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDC7E96-BDFB-C64D-A040-388F460E76C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5A59A6-B3F2-8749-8CC9-BDAC4A863F79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="112">
   <si>
     <t>type</t>
   </si>
@@ -360,6 +360,9 @@
   </si>
   <si>
     <t>5. Chitungwiza-Chitungwiza Central Hospital</t>
+  </si>
+  <si>
+    <t>minimal</t>
   </si>
 </sst>
 </file>
@@ -711,7 +714,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -720,7 +723,7 @@
     <col min="2" max="2" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="57" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="4" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" customWidth="1"/>
     <col min="6" max="8" width="13.5" customWidth="1"/>
     <col min="9" max="9" width="64" customWidth="1"/>
     <col min="10" max="18" width="13.5" customWidth="1"/>
@@ -940,7 +943,9 @@
         <v>44</v>
       </c>
       <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
+      <c r="E6" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="F6" s="11" t="s">
         <v>35</v>
       </c>

--- a/zazic-scale-up/forms/contact/person-edit.xlsx
+++ b/zazic-scale-up/forms/contact/person-edit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmanuel-amodu/Desktop/medic-mobile/config-itech/zazic-scale-up/forms/contact/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5A59A6-B3F2-8749-8CC9-BDAC4A863F79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE6C73D-E47A-1948-A0E1-85D7DF648ADD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="114">
   <si>
     <t>type</t>
   </si>
@@ -308,12 +308,6 @@
     <t>musiso</t>
   </si>
   <si>
-    <t>14. Zaka-Ndanga District Hospital</t>
-  </si>
-  <si>
-    <t>15. Zaka-Musiso Mission Hospital</t>
-  </si>
-  <si>
     <t>ndanga</t>
   </si>
   <si>
@@ -344,18 +338,6 @@
     <t>masase</t>
   </si>
   <si>
-    <t>16. Mberengwa-Mnene Mission Hospital</t>
-  </si>
-  <si>
-    <t>17. Mberengwa-Musume Mission Hospital</t>
-  </si>
-  <si>
-    <t>18. Mberengwa-Mberengwa District Hospital</t>
-  </si>
-  <si>
-    <t>19. Masase Mission Hospital</t>
-  </si>
-  <si>
     <t>4. Chitungwiza-Zengeza Clinic</t>
   </si>
   <si>
@@ -363,6 +345,30 @@
   </si>
   <si>
     <t>minimal</t>
+  </si>
+  <si>
+    <t>kadoma_city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14. Sanyati-Kadoma City </t>
+  </si>
+  <si>
+    <t>15. Zaka-Ndanga District Hospital</t>
+  </si>
+  <si>
+    <t>16. Zaka-Musiso Mission Hospital</t>
+  </si>
+  <si>
+    <t>17. Mberengwa-Mnene Mission Hospital</t>
+  </si>
+  <si>
+    <t>18. Mberengwa-Musume Mission Hospital</t>
+  </si>
+  <si>
+    <t>19. Mberengwa-Mberengwa District Hospital</t>
+  </si>
+  <si>
+    <t>20. Mberengwa-Masase Mission Hospital</t>
   </si>
 </sst>
 </file>
@@ -372,7 +378,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -431,6 +437,11 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -473,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -494,7 +505,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -712,9 +724,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -944,7 +956,7 @@
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>35</v>
@@ -2579,11 +2591,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z984"/>
+  <dimension ref="A1:Z983"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -2638,7 +2650,7 @@
       <c r="C5" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -2672,7 +2684,7 @@
       <c r="C6" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -2704,9 +2716,9 @@
         <v>40</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="6"/>
+        <v>94</v>
+      </c>
+      <c r="D7" s="14"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -2738,9 +2750,9 @@
         <v>45</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8" s="6"/>
+        <v>103</v>
+      </c>
+      <c r="D8" s="14"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -2772,9 +2784,9 @@
         <v>46</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D9" s="6"/>
+        <v>104</v>
+      </c>
+      <c r="D9" s="14"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -2808,7 +2820,7 @@
       <c r="C10" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -2840,9 +2852,9 @@
         <v>59</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="6"/>
+        <v>95</v>
+      </c>
+      <c r="D11" s="14"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -2874,9 +2886,9 @@
         <v>65</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="6"/>
+        <v>96</v>
+      </c>
+      <c r="D12" s="14"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -2908,9 +2920,9 @@
         <v>70</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="6"/>
+        <v>97</v>
+      </c>
+      <c r="D13" s="14"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -2942,9 +2954,9 @@
         <v>75</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" s="6"/>
+        <v>98</v>
+      </c>
+      <c r="D14" s="14"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -2972,110 +2984,130 @@
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>87</v>
       </c>
+      <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>89</v>
       </c>
+      <c r="D16" s="14"/>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="4" t="s">
         <v>91</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>90</v>
       </c>
+      <c r="D17" s="14"/>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>95</v>
+      <c r="B18" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>93</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="D18" s="15"/>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>92</v>
+      <c r="B19" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>94</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="D19" s="15"/>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1">
       <c r="A20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>101</v>
+      <c r="B20" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>105</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="D20" s="15"/>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>102</v>
+      <c r="B21" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>106</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="D21" s="15"/>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1">
       <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>103</v>
+      <c r="B22" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>107</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="D22" s="15"/>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1">
       <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>104</v>
+      <c r="B23" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>108</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D23" s="15"/>
     </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="15"/>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -4027,7 +4059,6 @@
     <row r="981" ht="15.75" customHeight="1"/>
     <row r="982" ht="15.75" customHeight="1"/>
     <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/zazic-scale-up/forms/contact/person-edit.xlsx
+++ b/zazic-scale-up/forms/contact/person-edit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmanuel-amodu/Desktop/medic-mobile/config-itech/zazic-scale-up/forms/contact/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmanuelamodu/Desktop/medic-mobile/config-itech/zazic-scale-up/forms/contact/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE6C73D-E47A-1948-A0E1-85D7DF648ADD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2713FD-7B3B-0A4D-A904-F1FD0D3C6FB7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="162">
   <si>
     <t>type</t>
   </si>
@@ -98,277 +98,421 @@
     <t>string</t>
   </si>
   <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>hidden</t>
+  </si>
+  <si>
+    <t>PARENT</t>
+  </si>
+  <si>
+    <t>Person Type</t>
+  </si>
+  <si>
+    <t>form_id</t>
+  </si>
+  <si>
+    <t>mandatory</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>style</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>VMMC Client Name</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>regex(., "^[a-zA-Z\'\s]+$")</t>
+  </si>
+  <si>
+    <t>Please type in name characters e.g letters and space.</t>
+  </si>
+  <si>
+    <t>Edit Person</t>
+  </si>
+  <si>
+    <t>select_one facilities</t>
+  </si>
+  <si>
+    <t>contact:person:edit</t>
+  </si>
+  <si>
+    <t>enrollment_facility</t>
+  </si>
+  <si>
+    <t>VMMC Enrollment Facility</t>
+  </si>
+  <si>
+    <t>enrollment_location</t>
+  </si>
+  <si>
+    <t>Specify Enrollment Location</t>
+  </si>
+  <si>
+    <t>pages</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>vmmc_no</t>
+  </si>
+  <si>
+    <t>VMMC Client Number</t>
+  </si>
+  <si>
+    <t>regex(., '^[0-9]{5,9}$')</t>
+  </si>
+  <si>
+    <t>Must be 5 – 9 numeric digits</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>age_years</t>
+  </si>
+  <si>
+    <t>VMMC Client Age in Years</t>
+  </si>
+  <si>
+    <t>(.) &gt;= 18 and (.) &lt;= 75</t>
+  </si>
+  <si>
+    <t>Only 18 - 75 yrs old men can enroll.</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>enrollment_date</t>
+  </si>
+  <si>
+    <t>Enrollment Date</t>
+  </si>
+  <si>
+    <t>decimal-date-time(.) = floor(decimal-date-time(today()))</t>
+  </si>
+  <si>
+    <t>Only today's date is allowed</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>Client Mobile phone number</t>
+  </si>
+  <si>
+    <t>regex(., '^\+263[0-9]{9}$')</t>
+  </si>
+  <si>
+    <t>Please enter phone number in the format +263xxxxxxxxx</t>
+  </si>
+  <si>
+    <t>alternative_phone</t>
+  </si>
+  <si>
+    <t>Alternative/Next of Kin's Mobile Number</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>select_one language_preference</t>
+  </si>
+  <si>
+    <t>What is this client’s language of preference for the texts?</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>enrollment_nurse</t>
+  </si>
+  <si>
+    <t>Name of enrollment nurse</t>
+  </si>
+  <si>
+    <t>end group</t>
+  </si>
+  <si>
+    <t>minimal</t>
+  </si>
+  <si>
+    <t>guruve_hospital</t>
+  </si>
+  <si>
+    <t>1. Guruve Hospital</t>
+  </si>
+  <si>
+    <t>bepura_clinic</t>
+  </si>
+  <si>
+    <t>2. Bepura Clinic</t>
+  </si>
+  <si>
+    <t>mhondoro_ngezi</t>
+  </si>
+  <si>
+    <t>3. Mhondoro Ngezi</t>
+  </si>
+  <si>
+    <t>michael_hospital</t>
+  </si>
+  <si>
+    <t>4. St Michael’s Hospital</t>
+  </si>
+  <si>
+    <t>turf_clinic</t>
+  </si>
+  <si>
+    <t>5. Turf Clinic</t>
+  </si>
+  <si>
+    <t>donain_clinic</t>
+  </si>
+  <si>
+    <t>6. Donain Clinic</t>
+  </si>
+  <si>
+    <t>matobo_district</t>
+  </si>
+  <si>
+    <t>7. Matobo District</t>
+  </si>
+  <si>
+    <t>maphisa_hospital</t>
+  </si>
+  <si>
+    <t>8. Maphisa Hospital</t>
+  </si>
+  <si>
+    <t>tshelanyemba_hospital</t>
+  </si>
+  <si>
+    <t>9. Tshelanyemba Hospital</t>
+  </si>
+  <si>
+    <t>joseph_hospital</t>
+  </si>
+  <si>
+    <t>10. St Joseph Hospital</t>
+  </si>
+  <si>
+    <t>matobo_rural_hospital</t>
+  </si>
+  <si>
+    <t>11. Matobo Rural Hospital</t>
+  </si>
+  <si>
+    <t>sanyati_baptist_hospital</t>
+  </si>
+  <si>
+    <t>12. Sanyati Baptist Hospital</t>
+  </si>
+  <si>
+    <t>chakari_clinic</t>
+  </si>
+  <si>
+    <t>13. Chakari Clinic</t>
+  </si>
+  <si>
+    <t>gokwe_district_hospital</t>
+  </si>
+  <si>
+    <t>14. Gokwe District Hospital</t>
+  </si>
+  <si>
+    <t>sai_clinic</t>
+  </si>
+  <si>
+    <t>15. Sai Clinic</t>
+  </si>
+  <si>
+    <t>kana_mission_hospital</t>
+  </si>
+  <si>
+    <t>16. Kana Mission Hospital</t>
+  </si>
+  <si>
+    <t>chidamoyo_mission_hospital</t>
+  </si>
+  <si>
+    <t>17. Chidamoyo Mission Hospital</t>
+  </si>
+  <si>
+    <t>hurungwe_rural_hospital</t>
+  </si>
+  <si>
+    <t>18. Hurungwe Rural Hospital</t>
+  </si>
+  <si>
+    <t>karoi_district_hospital</t>
+  </si>
+  <si>
+    <t>19. Karoi District Hospital</t>
+  </si>
+  <si>
+    <t>chitsungo_mission_hospital</t>
+  </si>
+  <si>
+    <t>20. Chitsungo Mission Hospital</t>
+  </si>
+  <si>
+    <t>mahuwe_rhc</t>
+  </si>
+  <si>
+    <t>21. Mahuwe RHC</t>
+  </si>
+  <si>
+    <t>luke_mission_hospital</t>
+  </si>
+  <si>
+    <t>22. St Luke's Mission Hospital</t>
+  </si>
+  <si>
+    <t>Paul_mission_hospital</t>
+  </si>
+  <si>
+    <t>23. Paul's Mission Hospital</t>
+  </si>
+  <si>
     <t>seke_north</t>
   </si>
   <si>
-    <t>parent</t>
-  </si>
-  <si>
-    <t>Parent</t>
-  </si>
-  <si>
-    <t>hidden</t>
-  </si>
-  <si>
-    <t>PARENT</t>
-  </si>
-  <si>
-    <t>Person Type</t>
-  </si>
-  <si>
-    <t>form_id</t>
-  </si>
-  <si>
-    <t>mandatory</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>style</t>
-  </si>
-  <si>
-    <t>path</t>
-  </si>
-  <si>
-    <t>VMMC Client Name</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>regex(., "^[a-zA-Z\'\s]+$")</t>
-  </si>
-  <si>
-    <t>Please type in name characters e.g letters and space.</t>
+    <t>24. Chitungwiza-Seke North clinic</t>
   </si>
   <si>
     <t>seke_south</t>
   </si>
   <si>
-    <t>Edit Person</t>
+    <t>25. Chitungwiza-Seke South clinic</t>
   </si>
   <si>
     <t>city_med</t>
   </si>
   <si>
-    <t>select_one facilities</t>
-  </si>
-  <si>
-    <t>contact:person:edit</t>
-  </si>
-  <si>
-    <t>enrollment_facility</t>
-  </si>
-  <si>
-    <t>VMMC Enrollment Facility</t>
+    <t>26. Chitungwiza-City Med hospital</t>
   </si>
   <si>
     <t>zengeza</t>
   </si>
   <si>
+    <t>27. Chitungwiza-Zengeza Clinic</t>
+  </si>
+  <si>
     <t>chitungwiza_central</t>
   </si>
   <si>
-    <t>enrollment_location</t>
-  </si>
-  <si>
-    <t>Specify Enrollment Location</t>
-  </si>
-  <si>
-    <t>pages</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>vmmc_no</t>
-  </si>
-  <si>
-    <t>VMMC Client Number</t>
+    <t>28. Chitungwiza-Chitungwiza Central Hospital</t>
   </si>
   <si>
     <t>chegutu_norton</t>
   </si>
   <si>
-    <t>regex(., '^[0-9]{5,9}$')</t>
-  </si>
-  <si>
-    <t>Must be 5 – 9 numeric digits</t>
-  </si>
-  <si>
-    <t>decimal</t>
-  </si>
-  <si>
-    <t>age_years</t>
-  </si>
-  <si>
-    <t>VMMC Client Age in Years</t>
+    <t>29. Chegutu- Norton hospital</t>
   </si>
   <si>
     <t>chegutu_district</t>
   </si>
   <si>
-    <t>(.) &gt;= 18 and (.) &lt;= 75</t>
-  </si>
-  <si>
-    <t>Only 18 - 75 yrs old men can enroll.</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>enrollment_date</t>
-  </si>
-  <si>
-    <t>Enrollment Date</t>
+    <t>30. Chegutu- District Hospital</t>
   </si>
   <si>
     <t>monera</t>
   </si>
   <si>
-    <t>decimal-date-time(.) = floor(decimal-date-time(today()))</t>
-  </si>
-  <si>
-    <t>Only today's date is allowed</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>Client Mobile phone number</t>
+    <t>31. Chegutu-Monera clinic(Norton Outreach)</t>
   </si>
   <si>
     <t>marondera</t>
   </si>
   <si>
-    <t>regex(., '^\+263[0-9]{9}$')</t>
-  </si>
-  <si>
-    <t>Please enter phone number in the format +263xxxxxxxxx</t>
-  </si>
-  <si>
-    <t>alternative_phone</t>
-  </si>
-  <si>
-    <t>Alternative/Next of Kin's Mobile Number</t>
+    <t>32. Marondera- Marondera District Hospital</t>
   </si>
   <si>
     <t>mahusekwa</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>select_one language_preference</t>
-  </si>
-  <si>
-    <t>What is this client’s language of preference for the texts?</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>enrollment_nurse</t>
-  </si>
-  <si>
-    <t>Name of enrollment nurse</t>
-  </si>
-  <si>
-    <t>end group</t>
-  </si>
-  <si>
-    <t>1. Chitungwiza-Seke North clinic</t>
-  </si>
-  <si>
-    <t>2. Chitungwiza-Seke South clinic</t>
-  </si>
-  <si>
-    <t>6. Chegutu- Norton hospital</t>
+    <t>33. Marondera- Mahusekwa Hospital</t>
   </si>
   <si>
     <t>makumbe</t>
   </si>
   <si>
-    <t>11. Goromonzi-Makumbe Mission Hospital</t>
+    <t>34. Goromonzi-Makumbe Mission Hospital</t>
   </si>
   <si>
     <t>ruwa</t>
   </si>
   <si>
-    <t>12. Goromonzi-Ruwa Rehab Hospital</t>
-  </si>
-  <si>
-    <t>13. Sanyati-Kadoma Hospital</t>
+    <t>35. Goromonzi-Ruwa Rehab Hospital</t>
   </si>
   <si>
     <t>kadoma</t>
   </si>
   <si>
+    <t>36. Sanyati-Kadoma Hospital</t>
+  </si>
+  <si>
+    <t>kadoma_city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37. Sanyati-Kadoma City </t>
+  </si>
+  <si>
+    <t>ndanga</t>
+  </si>
+  <si>
+    <t>38. Zaka-Ndanga District Hospital</t>
+  </si>
+  <si>
     <t>musiso</t>
   </si>
   <si>
-    <t>ndanga</t>
-  </si>
-  <si>
-    <t>3. Chitungwiza-City Med hospital</t>
-  </si>
-  <si>
-    <t>7. Chegutu- District Hospital</t>
-  </si>
-  <si>
-    <t>8. Chegutu-Monera clinic(Norton Outreach)</t>
-  </si>
-  <si>
-    <t>9. Marondera- Marondera District Hospital</t>
-  </si>
-  <si>
-    <t>10. Marondera- Mahusekwa Hospital</t>
+    <t>39. Zaka-Musiso Mission Hospital</t>
   </si>
   <si>
     <t>mnene</t>
   </si>
   <si>
+    <t>40. Mberengwa-Mnene Mission Hospital</t>
+  </si>
+  <si>
     <t>musume</t>
   </si>
   <si>
+    <t>41. Mberengwa-Musume Mission Hospital</t>
+  </si>
+  <si>
     <t>mberengwa</t>
   </si>
   <si>
+    <t>42. Mberengwa-Mberengwa District Hospital</t>
+  </si>
+  <si>
     <t>masase</t>
   </si>
   <si>
-    <t>4. Chitungwiza-Zengeza Clinic</t>
-  </si>
-  <si>
-    <t>5. Chitungwiza-Chitungwiza Central Hospital</t>
-  </si>
-  <si>
-    <t>minimal</t>
-  </si>
-  <si>
-    <t>kadoma_city</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14. Sanyati-Kadoma City </t>
-  </si>
-  <si>
-    <t>15. Zaka-Ndanga District Hospital</t>
-  </si>
-  <si>
-    <t>16. Zaka-Musiso Mission Hospital</t>
-  </si>
-  <si>
-    <t>17. Mberengwa-Mnene Mission Hospital</t>
-  </si>
-  <si>
-    <t>18. Mberengwa-Musume Mission Hospital</t>
-  </si>
-  <si>
-    <t>19. Mberengwa-Mberengwa District Hospital</t>
-  </si>
-  <si>
-    <t>20. Mberengwa-Masase Mission Hospital</t>
+    <t>43. Mberengwa-Masase Mission Hospital</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>44. Other</t>
   </si>
 </sst>
 </file>
@@ -726,7 +870,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -831,19 +975,19 @@
         <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -872,15 +1016,15 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>13</v>
@@ -912,20 +1056,20 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -946,20 +1090,20 @@
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1">
       <c r="A6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
@@ -987,23 +1131,23 @@
         <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -1027,23 +1171,23 @@
         <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -1064,26 +1208,26 @@
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -1104,26 +1248,26 @@
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -1147,23 +1291,23 @@
         <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -1187,23 +1331,23 @@
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -1224,18 +1368,18 @@
     </row>
     <row r="13" spans="1:26" ht="16">
       <c r="A13" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1260,26 +1404,26 @@
     </row>
     <row r="14" spans="1:26" ht="16">
       <c r="A14" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -1300,7 +1444,7 @@
     </row>
     <row r="15" spans="1:26" ht="16">
       <c r="A15" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2595,7 +2739,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -2641,14 +2785,14 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="16">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>83</v>
+      <c r="B5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>75</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="6"/>
@@ -2675,14 +2819,14 @@
       <c r="Z5" s="6"/>
     </row>
     <row r="6" spans="1:26" ht="16">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>84</v>
+      <c r="B6" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>77</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="6"/>
@@ -2709,14 +2853,14 @@
       <c r="Z6" s="6"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>94</v>
+      <c r="B7" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="6"/>
@@ -2743,14 +2887,14 @@
       <c r="Z7" s="6"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>103</v>
+      <c r="B8" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="6"/>
@@ -2777,14 +2921,14 @@
       <c r="Z8" s="6"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>104</v>
+      <c r="B9" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>83</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="6"/>
@@ -2811,13 +2955,13 @@
       <c r="Z9" s="6"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>85</v>
       </c>
       <c r="D10" s="14"/>
@@ -2845,14 +2989,14 @@
       <c r="Z10" s="6"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>95</v>
+      <c r="B11" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>87</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="6"/>
@@ -2879,14 +3023,14 @@
       <c r="Z11" s="6"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>96</v>
+      <c r="B12" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>89</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="6"/>
@@ -2913,14 +3057,14 @@
       <c r="Z12" s="6"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>97</v>
+      <c r="B13" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="6"/>
@@ -2947,14 +3091,14 @@
       <c r="Z13" s="6"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>98</v>
+      <c r="B14" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>93</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="6"/>
@@ -2981,149 +3125,389 @@
       <c r="Z14" s="6"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>87</v>
+      <c r="B15" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>89</v>
+      <c r="B16" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>90</v>
+      <c r="B17" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>99</v>
       </c>
       <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="15"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A19" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="15"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A20" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="15"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A21" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C21" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="D18" s="15"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A19" s="4" t="s">
+      <c r="D21" s="15"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A22" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="B22" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="15"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A20" s="4" t="s">
+      <c r="C22" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="15"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A23" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D20" s="15"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A21" s="4" t="s">
+      <c r="B23" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="15"/>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A24" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D21" s="15"/>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A22" s="4" t="s">
+      <c r="B24" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="15"/>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A25" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D22" s="15"/>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A23" s="4" t="s">
+      <c r="B25" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D23" s="15"/>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A24" s="4" t="s">
+      <c r="B26" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A27" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D24" s="15"/>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
+      <c r="B27" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A32" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A33" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A34" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A35" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A36" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A37" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A39" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A40" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A41" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A42" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A43" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A44" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A45" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A46" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A47" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A48" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>161</v>
+      </c>
+    </row>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>
@@ -4086,16 +4470,16 @@
         <v>11</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -4110,19 +4494,19 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="C2" s="12">
         <v>43936</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>

--- a/zazic-scale-up/forms/contact/person-edit.xlsx
+++ b/zazic-scale-up/forms/contact/person-edit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmanuelamodu/Desktop/medic-mobile/config-itech/zazic-scale-up/forms/contact/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amatsii-dev\medic\config-itech\zazic-scale-up\forms\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2713FD-7B3B-0A4D-A904-F1FD0D3C6FB7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE0E7D7-3FE2-4AA4-BEB8-7894A284FC26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="164">
   <si>
     <t>type</t>
   </si>
@@ -513,6 +513,12 @@
   </si>
   <si>
     <t>44. Other</t>
+  </si>
+  <si>
+    <t>ndebele</t>
+  </si>
+  <si>
+    <t>Ndebele</t>
   </si>
 </sst>
 </file>
@@ -873,13 +879,13 @@
       <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="28.1640625" customWidth="1"/>
+    <col min="1" max="1" width="28.125" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="57" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="24.125" customWidth="1"/>
     <col min="6" max="8" width="13.5" customWidth="1"/>
     <col min="9" max="9" width="64" customWidth="1"/>
     <col min="10" max="18" width="13.5" customWidth="1"/>
@@ -1286,7 +1292,7 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11" spans="1:26" ht="16">
+    <row r="11" spans="1:26" ht="15.75">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1366,7 +1372,7 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" spans="1:26" ht="16">
+    <row r="13" spans="1:26" ht="15.75">
       <c r="A13" s="1" t="s">
         <v>67</v>
       </c>
@@ -1402,7 +1408,7 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" spans="1:26" ht="16">
+    <row r="14" spans="1:26" ht="15.75">
       <c r="A14" s="1" t="s">
         <v>69</v>
       </c>
@@ -1442,7 +1448,7 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" spans="1:26" ht="16">
+    <row r="15" spans="1:26" ht="15.75">
       <c r="A15" s="1" t="s">
         <v>72</v>
       </c>
@@ -1528,7 +1534,7 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18" spans="1:26" ht="16">
+    <row r="18" spans="1:26" ht="15.75">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1556,7 +1562,7 @@
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19" spans="1:26" ht="16">
+    <row r="19" spans="1:26" ht="15.75">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2735,23 +2741,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z983"/>
+  <dimension ref="A1:Z984"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
-    <col min="3" max="3" width="37.83203125" customWidth="1"/>
+    <col min="1" max="1" width="19.625" customWidth="1"/>
+    <col min="2" max="2" width="26.375" customWidth="1"/>
+    <col min="3" max="3" width="37.875" customWidth="1"/>
     <col min="4" max="6" width="13.5" customWidth="1"/>
     <col min="7" max="26" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="16">
+    <row r="1" spans="1:26" ht="15.75">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
@@ -2762,7 +2768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="16">
+    <row r="2" spans="1:26" ht="15.75">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -2773,7 +2779,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="16">
+    <row r="3" spans="1:26" ht="15.75">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -2784,49 +2790,49 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="16">
-      <c r="A5" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-    </row>
-    <row r="6" spans="1:26" ht="16">
+    <row r="4" spans="1:26" s="15" customFormat="1" ht="15.75">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+    </row>
+    <row r="6" spans="1:26" ht="15.75">
       <c r="A6" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="6"/>
@@ -2852,15 +2858,15 @@
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1">
+    <row r="7" spans="1:26" ht="15.75">
       <c r="A7" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="6"/>
@@ -2891,10 +2897,10 @@
         <v>21</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="6"/>
@@ -2925,10 +2931,10 @@
         <v>21</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="6"/>
@@ -2959,10 +2965,10 @@
         <v>21</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="6"/>
@@ -2993,10 +2999,10 @@
         <v>21</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="6"/>
@@ -3023,14 +3029,14 @@
       <c r="Z11" s="6"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>89</v>
+      <c r="B12" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>87</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="6"/>
@@ -3061,10 +3067,10 @@
         <v>21</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="6"/>
@@ -3095,10 +3101,10 @@
         <v>21</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="6"/>
@@ -3129,22 +3135,44 @@
         <v>21</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D15" s="14"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D16" s="14"/>
     </row>
@@ -3153,10 +3181,10 @@
         <v>21</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D17" s="14"/>
     </row>
@@ -3165,22 +3193,22 @@
         <v>21</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" s="15"/>
+        <v>99</v>
+      </c>
+      <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1">
       <c r="A19" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D19" s="15"/>
     </row>
@@ -3189,10 +3217,10 @@
         <v>21</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D20" s="15"/>
     </row>
@@ -3201,10 +3229,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D21" s="15"/>
     </row>
@@ -3213,10 +3241,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D22" s="15"/>
     </row>
@@ -3225,10 +3253,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D23" s="15"/>
     </row>
@@ -3237,10 +3265,10 @@
         <v>21</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D24" s="15"/>
     </row>
@@ -3249,21 +3277,22 @@
         <v>21</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>115</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="D25" s="15"/>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1">
       <c r="A26" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1">
@@ -3271,21 +3300,21 @@
         <v>21</v>
       </c>
       <c r="B27" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A28" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C28" s="14" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A28" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1">
@@ -3293,10 +3322,10 @@
         <v>21</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1">
@@ -3304,10 +3333,10 @@
         <v>21</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1">
@@ -3315,10 +3344,10 @@
         <v>21</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1">
@@ -3326,10 +3355,10 @@
         <v>21</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1">
@@ -3337,10 +3366,10 @@
         <v>21</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1">
@@ -3348,10 +3377,10 @@
         <v>21</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1">
@@ -3359,10 +3388,10 @@
         <v>21</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1">
@@ -3370,10 +3399,10 @@
         <v>21</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1">
@@ -3381,10 +3410,10 @@
         <v>21</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1">
@@ -3392,10 +3421,10 @@
         <v>21</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1">
@@ -3403,10 +3432,10 @@
         <v>21</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1">
@@ -3414,10 +3443,10 @@
         <v>21</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1">
@@ -3425,10 +3454,10 @@
         <v>21</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1">
@@ -3436,10 +3465,10 @@
         <v>21</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1">
@@ -3447,10 +3476,10 @@
         <v>21</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1">
@@ -3458,10 +3487,10 @@
         <v>21</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1">
@@ -3469,10 +3498,10 @@
         <v>21</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1">
@@ -3480,10 +3509,10 @@
         <v>21</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1">
@@ -3491,39 +3520,49 @@
         <v>21</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A48" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C48" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A48" s="14" t="s">
+    <row r="49" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A49" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B49" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C49" s="14" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="51" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="52" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="53" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="54" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="55" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="56" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="57" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="58" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="59" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="60" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="61" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="62" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="63" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="64" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1"/>
@@ -4443,6 +4482,7 @@
     <row r="981" ht="15.75" customHeight="1"/>
     <row r="982" ht="15.75" customHeight="1"/>
     <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -4455,10 +4495,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" customWidth="1"/>
-    <col min="2" max="2" width="53.33203125" customWidth="1"/>
+    <col min="1" max="1" width="38.625" customWidth="1"/>
+    <col min="2" max="2" width="53.375" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="15" width="13.5" customWidth="1"/>

--- a/zazic-scale-up/forms/contact/person-edit.xlsx
+++ b/zazic-scale-up/forms/contact/person-edit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amatsii-dev\medic\config-itech\zazic-scale-up\forms\contact\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmanuelamodu/Desktop/medic-mobile/config-itech/zazic-scale-up/forms/contact/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE0E7D7-3FE2-4AA4-BEB8-7894A284FC26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8819FD8-2F96-B74C-A013-D96B719BA394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8560" yWindow="5180" windowWidth="20740" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="165">
   <si>
     <t>type</t>
   </si>
@@ -143,18 +143,12 @@
     <t>Edit Person</t>
   </si>
   <si>
-    <t>select_one facilities</t>
-  </si>
-  <si>
     <t>contact:person:edit</t>
   </si>
   <si>
     <t>enrollment_facility</t>
   </si>
   <si>
-    <t>VMMC Enrollment Facility</t>
-  </si>
-  <si>
     <t>enrollment_location</t>
   </si>
   <si>
@@ -248,9 +242,6 @@
     <t>end group</t>
   </si>
   <si>
-    <t>minimal</t>
-  </si>
-  <si>
     <t>guruve_hospital</t>
   </si>
   <si>
@@ -519,6 +510,18 @@
   </si>
   <si>
     <t>Ndebele</t>
+  </si>
+  <si>
+    <t>db:health_center</t>
+  </si>
+  <si>
+    <t>db-object</t>
+  </si>
+  <si>
+    <t>_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which clinic? </t>
   </si>
 </sst>
 </file>
@@ -528,7 +531,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -578,17 +581,26 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF843C0B"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Cambria"/>
       <family val="1"/>
     </font>
@@ -634,7 +646,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -648,15 +660,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -872,20 +888,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="28.125" customWidth="1"/>
+    <col min="1" max="1" width="28.1640625" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="57" customWidth="1"/>
-    <col min="4" max="4" width="11.375" customWidth="1"/>
-    <col min="5" max="5" width="24.125" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" customWidth="1"/>
     <col min="6" max="8" width="13.5" customWidth="1"/>
     <col min="9" max="9" width="64" customWidth="1"/>
     <col min="10" max="18" width="13.5" customWidth="1"/>
@@ -1094,173 +1110,151 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="11" t="s">
+    <row r="6" spans="1:26" s="13" customFormat="1" ht="16">
+      <c r="A6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+    </row>
+    <row r="7" spans="1:26" s="13" customFormat="1" ht="16">
+      <c r="A7" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-    </row>
-    <row r="7" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A7" s="1" t="s">
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+    </row>
+    <row r="8" spans="1:26" s="13" customFormat="1" ht="16">
+      <c r="A8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-    </row>
-    <row r="8" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-    </row>
-    <row r="9" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
+      <c r="B8" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+    </row>
+    <row r="9" spans="1:26" s="13" customFormat="1" ht="16">
+      <c r="A9" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1270,10 +1264,10 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -1292,15 +1286,15 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75">
+    <row r="11" spans="1:26" ht="12.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1310,10 +1304,10 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -1334,26 +1328,26 @@
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -1372,15 +1366,15 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75">
+    <row r="13" spans="1:26" ht="12.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1389,8 +1383,12 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -1408,15 +1406,15 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75">
+    <row r="14" spans="1:26" ht="16">
       <c r="A14" s="1" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1426,10 +1424,10 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -1448,19 +1446,29 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75">
+    <row r="15" spans="1:26" ht="12.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -1478,17 +1486,25 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+    <row r="16" spans="1:26" ht="16">
+      <c r="A16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -1501,22 +1517,34 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+    <row r="17" spans="1:26" ht="16">
+      <c r="A17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -1529,22 +1557,24 @@
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+    <row r="18" spans="1:26" ht="16">
+      <c r="A18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -1557,12 +1587,12 @@
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19" spans="1:26" ht="15.75">
+    <row r="19" spans="1:26" ht="12.75" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1585,8 +1615,8 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
     </row>
@@ -1618,7 +1648,7 @@
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1">
+    <row r="21" spans="1:26" ht="16">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1646,7 +1676,7 @@
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1">
+    <row r="22" spans="1:26" ht="16">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1674,7 +1704,7 @@
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
     </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1">
+    <row r="23" spans="1:26" ht="12.75" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1705,7 +1735,7 @@
     <row r="24" spans="1:26" ht="15.75" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="13"/>
+      <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -1730,7 +1760,7 @@
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
     </row>
-    <row r="25" spans="1:26" ht="12.75" customHeight="1">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1758,11 +1788,92 @@
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
     </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="28" spans="1:26" ht="12.75" customHeight="1"/>
-    <row r="29" spans="1:26" ht="12.75" customHeight="1"/>
-    <row r="30" spans="1:26" ht="12.75" customHeight="1"/>
+    <row r="26" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+    </row>
+    <row r="27" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+    </row>
+    <row r="28" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+    </row>
+    <row r="29" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="31" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="32" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="33" ht="12.75" customHeight="1"/>
@@ -1958,9 +2069,9 @@
     <row r="223" ht="12.75" customHeight="1"/>
     <row r="224" ht="12.75" customHeight="1"/>
     <row r="225" ht="12.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="226" ht="12.75" customHeight="1"/>
+    <row r="227" ht="12.75" customHeight="1"/>
+    <row r="228" ht="12.75" customHeight="1"/>
     <row r="229" ht="15.75" customHeight="1"/>
     <row r="230" ht="15.75" customHeight="1"/>
     <row r="231" ht="15.75" customHeight="1"/>
@@ -2733,6 +2844,9 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="1003" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -2743,21 +2857,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z984"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19.625" customWidth="1"/>
-    <col min="2" max="2" width="26.375" customWidth="1"/>
-    <col min="3" max="3" width="37.875" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="37.83203125" customWidth="1"/>
     <col min="4" max="6" width="13.5" customWidth="1"/>
     <col min="7" max="26" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75">
+    <row r="1" spans="1:26" ht="16">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
@@ -2768,7 +2882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="15.75">
+    <row r="2" spans="1:26" ht="16">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -2779,7 +2893,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="15.75">
+    <row r="3" spans="1:26" ht="16">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -2790,51 +2904,51 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="15" customFormat="1" ht="15.75">
+    <row r="4" spans="1:26" s="13" customFormat="1" ht="16">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="14"/>
-    </row>
-    <row r="6" spans="1:26" ht="15.75">
-      <c r="A6" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+    </row>
+    <row r="6" spans="1:26" ht="16">
+      <c r="A6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="14"/>
+      <c r="B6" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="12"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -2858,17 +2972,17 @@
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:26" ht="16">
+      <c r="A7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="14"/>
+      <c r="B7" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="12"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -2893,16 +3007,16 @@
       <c r="Z7" s="6"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="14"/>
+      <c r="B8" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="12"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -2927,16 +3041,16 @@
       <c r="Z8" s="6"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="14"/>
+      <c r="B9" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="12"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -2961,16 +3075,16 @@
       <c r="Z9" s="6"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="14"/>
+      <c r="B10" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="12"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -2995,16 +3109,16 @@
       <c r="Z10" s="6"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="14"/>
+      <c r="B11" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="12"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -3029,16 +3143,16 @@
       <c r="Z11" s="6"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="14"/>
+      <c r="B12" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="12"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -3063,16 +3177,16 @@
       <c r="Z12" s="6"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" s="14"/>
+      <c r="B13" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="12"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -3097,16 +3211,16 @@
       <c r="Z13" s="6"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="14"/>
+      <c r="B14" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="12"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -3131,16 +3245,16 @@
       <c r="Z14" s="6"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="14"/>
+      <c r="B15" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="12"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -3165,156 +3279,156 @@
       <c r="Z15" s="6"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="12"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A17" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="D17" s="12"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A18" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="14"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A17" s="14" t="s">
+      <c r="C18" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="12"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A19" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" s="14" t="s">
+      <c r="B19" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="14"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A18" s="14" t="s">
+      <c r="C19" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="13"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A20" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" s="14" t="s">
+      <c r="B20" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D18" s="14"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A19" s="14" t="s">
+      <c r="C20" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="13"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A21" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" s="14" t="s">
+      <c r="B21" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="15"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A20" s="14" t="s">
+      <c r="C21" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="13"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A22" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" s="14" t="s">
+      <c r="B22" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D20" s="15"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A21" s="14" t="s">
+      <c r="C22" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="13"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A23" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="14" t="s">
+      <c r="B23" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D21" s="15"/>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A22" s="14" t="s">
+      <c r="C23" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="13"/>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A24" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C22" s="14" t="s">
+      <c r="B24" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D22" s="15"/>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A23" s="14" t="s">
+      <c r="C24" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="13"/>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A25" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="C23" s="14" t="s">
+      <c r="B25" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="D23" s="15"/>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A24" s="14" t="s">
+      <c r="C25" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" s="13"/>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A26" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="14" t="s">
+      <c r="B26" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="D24" s="15"/>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A25" s="14" t="s">
+      <c r="C26" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A27" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C25" s="14" t="s">
+      <c r="B27" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D25" s="15"/>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A26" s="14" t="s">
+      <c r="C27" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A28" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C26" s="14" t="s">
+      <c r="B28" s="12" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A27" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="14" t="s">
+      <c r="C28" s="12" t="s">
         <v>116</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A28" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1">
@@ -3322,10 +3436,10 @@
         <v>21</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1">
@@ -3333,10 +3447,10 @@
         <v>21</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1">
@@ -3344,10 +3458,10 @@
         <v>21</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1">
@@ -3355,10 +3469,10 @@
         <v>21</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1">
@@ -3366,10 +3480,10 @@
         <v>21</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1">
@@ -3377,10 +3491,10 @@
         <v>21</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1">
@@ -3388,10 +3502,10 @@
         <v>21</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1">
@@ -3399,10 +3513,10 @@
         <v>21</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1">
@@ -3410,10 +3524,10 @@
         <v>21</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1">
@@ -3421,10 +3535,10 @@
         <v>21</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1">
@@ -3432,10 +3546,10 @@
         <v>21</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1">
@@ -3443,10 +3557,10 @@
         <v>21</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1">
@@ -3454,10 +3568,10 @@
         <v>21</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1">
@@ -3465,10 +3579,10 @@
         <v>21</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1">
@@ -3476,10 +3590,10 @@
         <v>21</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1">
@@ -3487,10 +3601,10 @@
         <v>21</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1">
@@ -3498,10 +3612,10 @@
         <v>21</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1">
@@ -3509,10 +3623,10 @@
         <v>21</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1">
@@ -3520,10 +3634,10 @@
         <v>21</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1">
@@ -3531,21 +3645,21 @@
         <v>21</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A49" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C49" s="12" t="s">
         <v>158</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A49" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1"/>
@@ -4495,10 +4609,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="38.625" customWidth="1"/>
-    <col min="2" max="2" width="53.375" customWidth="1"/>
+    <col min="1" max="1" width="38.6640625" customWidth="1"/>
+    <col min="2" max="2" width="53.33203125" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="15" width="13.5" customWidth="1"/>
@@ -4536,28 +4650,28 @@
       <c r="A2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="12">
+      <c r="B2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="10">
         <v>43936</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
+      <c r="D2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
